--- a/backend/inventory_data.xlsx
+++ b/backend/inventory_data.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-26 12:10</t>
+          <t>2025-12-26 13:24</t>
         </is>
       </c>
     </row>
